--- a/Team-Data/2008-09/3-27-2008-09.xlsx
+++ b/Team-Data/2008-09/3-27-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" t="n">
         <v>42</v>
       </c>
       <c r="F2" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" t="n">
-        <v>0.575</v>
+        <v>0.583</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
       </c>
       <c r="I2" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J2" t="n">
-        <v>79</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L2" t="n">
         <v>7.3</v>
@@ -702,13 +769,13 @@
         <v>18.3</v>
       </c>
       <c r="P2" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q2" t="n">
         <v>0.732</v>
       </c>
       <c r="R2" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S2" t="n">
         <v>29.5</v>
@@ -717,7 +784,7 @@
         <v>40.2</v>
       </c>
       <c r="U2" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V2" t="n">
         <v>12.8</v>
@@ -729,22 +796,22 @@
         <v>4.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z2" t="n">
         <v>19.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -774,13 +841,13 @@
         <v>7</v>
       </c>
       <c r="AN2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
@@ -807,13 +874,13 @@
         <v>18</v>
       </c>
       <c r="AY2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BB2" t="n">
         <v>17</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-27-2008-09</t>
+          <t>2009-03-27</t>
         </is>
       </c>
     </row>
@@ -863,52 +930,52 @@
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J3" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K3" t="n">
         <v>0.485</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M3" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0.395</v>
+        <v>0.392</v>
       </c>
       <c r="O3" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="P3" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.771</v>
+        <v>0.769</v>
       </c>
       <c r="R3" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S3" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T3" t="n">
-        <v>42.5</v>
+        <v>42.3</v>
       </c>
       <c r="U3" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V3" t="n">
         <v>15.7</v>
       </c>
       <c r="W3" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y3" t="n">
         <v>4.7</v>
@@ -917,10 +984,10 @@
         <v>23.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="AC3" t="n">
         <v>8.1</v>
@@ -950,7 +1017,7 @@
         <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM3" t="n">
         <v>21</v>
@@ -959,37 +1026,37 @@
         <v>1</v>
       </c>
       <c r="AO3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AR3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS3" t="n">
         <v>5</v>
       </c>
       <c r="AT3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU3" t="n">
         <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW3" t="n">
         <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AY3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
         <v>27</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-27-2008-09</t>
+          <t>2009-03-27</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" t="n">
         <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>0.444</v>
+        <v>0.437</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
@@ -1048,10 +1115,10 @@
         <v>34.9</v>
       </c>
       <c r="J4" t="n">
-        <v>76.59999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="K4" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L4" t="n">
         <v>6</v>
@@ -1060,19 +1127,19 @@
         <v>16.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.369</v>
+        <v>0.37</v>
       </c>
       <c r="O4" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P4" t="n">
         <v>23.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.741</v>
+        <v>0.742</v>
       </c>
       <c r="R4" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S4" t="n">
         <v>28.8</v>
@@ -1093,7 +1160,7 @@
         <v>4.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z4" t="n">
         <v>21.7</v>
@@ -1102,13 +1169,13 @@
         <v>20.9</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.59999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>-1</v>
+        <v>-1.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
@@ -1120,7 +1187,7 @@
         <v>18</v>
       </c>
       <c r="AH4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1153,7 +1220,7 @@
         <v>17</v>
       </c>
       <c r="AS4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT4" t="n">
         <v>27</v>
@@ -1162,10 +1229,10 @@
         <v>12</v>
       </c>
       <c r="AV4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX4" t="n">
         <v>14</v>
@@ -1177,7 +1244,7 @@
         <v>20</v>
       </c>
       <c r="BA4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-27-2008-09</t>
+          <t>2009-03-27</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E5" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5" t="n">
         <v>38</v>
       </c>
       <c r="G5" t="n">
-        <v>0.472</v>
+        <v>0.479</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
@@ -1230,10 +1297,10 @@
         <v>37.8</v>
       </c>
       <c r="J5" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
@@ -1242,16 +1309,16 @@
         <v>15.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="O5" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="P5" t="n">
-        <v>24.8</v>
+        <v>25.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.793</v>
+        <v>0.792</v>
       </c>
       <c r="R5" t="n">
         <v>12.1</v>
@@ -1263,34 +1330,34 @@
         <v>42.6</v>
       </c>
       <c r="U5" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V5" t="n">
         <v>14.9</v>
       </c>
       <c r="W5" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X5" t="n">
         <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z5" t="n">
         <v>21.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.9</v>
+        <v>-0.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
         <v>16</v>
@@ -1299,10 +1366,10 @@
         <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
@@ -1314,7 +1381,7 @@
         <v>19</v>
       </c>
       <c r="AL5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM5" t="n">
         <v>24</v>
@@ -1323,10 +1390,10 @@
         <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ5" t="n">
         <v>7</v>
@@ -1335,7 +1402,7 @@
         <v>6</v>
       </c>
       <c r="AS5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT5" t="n">
         <v>7</v>
@@ -1344,7 +1411,7 @@
         <v>15</v>
       </c>
       <c r="AV5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW5" t="n">
         <v>12</v>
@@ -1359,13 +1426,13 @@
         <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB5" t="n">
         <v>10</v>
       </c>
       <c r="BC5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-27-2008-09</t>
+          <t>2009-03-27</t>
         </is>
       </c>
     </row>
@@ -1397,58 +1464,58 @@
         <v>71</v>
       </c>
       <c r="E6" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.831</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>78.3</v>
+        <v>78.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.47</v>
+        <v>0.469</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M6" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.392</v>
+        <v>0.388</v>
       </c>
       <c r="O6" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P6" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.756</v>
+        <v>0.754</v>
       </c>
       <c r="R6" t="n">
         <v>10.7</v>
       </c>
       <c r="S6" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="T6" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U6" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V6" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W6" t="n">
         <v>7.5</v>
@@ -1460,19 +1527,19 @@
         <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.5</v>
+        <v>100.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.300000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1487,7 +1554,7 @@
         <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ6" t="n">
         <v>25</v>
@@ -1496,22 +1563,22 @@
         <v>5</v>
       </c>
       <c r="AL6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM6" t="n">
         <v>5</v>
       </c>
       <c r="AN6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AQ6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR6" t="n">
         <v>18</v>
@@ -1520,10 +1587,10 @@
         <v>9</v>
       </c>
       <c r="AT6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AV6" t="n">
         <v>7</v>
@@ -1541,7 +1608,7 @@
         <v>7</v>
       </c>
       <c r="BA6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BB6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-27-2008-09</t>
+          <t>2009-03-27</t>
         </is>
       </c>
     </row>
@@ -1576,61 +1643,61 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" t="n">
         <v>43</v>
       </c>
       <c r="F7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" t="n">
-        <v>0.597</v>
+        <v>0.606</v>
       </c>
       <c r="H7" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I7" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J7" t="n">
         <v>82.90000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L7" t="n">
         <v>6.8</v>
       </c>
       <c r="M7" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="N7" t="n">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="O7" t="n">
-        <v>18.4</v>
+        <v>18.2</v>
       </c>
       <c r="P7" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S7" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="T7" t="n">
         <v>42.9</v>
       </c>
       <c r="U7" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V7" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W7" t="n">
         <v>7.3</v>
@@ -1645,16 +1712,16 @@
         <v>19.4</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="AB7" t="n">
         <v>101.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
@@ -1675,19 +1742,19 @@
         <v>6</v>
       </c>
       <c r="AK7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AL7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM7" t="n">
         <v>8</v>
       </c>
       <c r="AN7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO7" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AP7" t="n">
         <v>28</v>
@@ -1696,7 +1763,7 @@
         <v>2</v>
       </c>
       <c r="AR7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AS7" t="n">
         <v>6</v>
@@ -1705,16 +1772,16 @@
         <v>6</v>
       </c>
       <c r="AU7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX7" t="n">
         <v>10</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>8</v>
       </c>
       <c r="AY7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-27-2008-09</t>
+          <t>2009-03-27</t>
         </is>
       </c>
     </row>
@@ -1758,28 +1825,28 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" t="n">
         <v>26</v>
       </c>
       <c r="G8" t="n">
-        <v>0.644</v>
+        <v>0.639</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
       </c>
       <c r="I8" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J8" t="n">
-        <v>79.09999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="K8" t="n">
-        <v>0.467</v>
+        <v>0.466</v>
       </c>
       <c r="L8" t="n">
         <v>6.4</v>
@@ -1791,16 +1858,16 @@
         <v>0.367</v>
       </c>
       <c r="O8" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="P8" t="n">
-        <v>30.3</v>
+        <v>30.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.761</v>
+        <v>0.762</v>
       </c>
       <c r="R8" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S8" t="n">
         <v>30.2</v>
@@ -1812,10 +1879,10 @@
         <v>21.9</v>
       </c>
       <c r="V8" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W8" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X8" t="n">
         <v>5.9</v>
@@ -1824,10 +1891,10 @@
         <v>5.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="AB8" t="n">
         <v>103.5</v>
@@ -1836,22 +1903,22 @@
         <v>3.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF8" t="n">
         <v>6</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ8" t="n">
         <v>23</v>
@@ -1860,13 +1927,13 @@
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM8" t="n">
         <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1878,22 +1945,22 @@
         <v>20</v>
       </c>
       <c r="AR8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS8" t="n">
         <v>15</v>
       </c>
       <c r="AT8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX8" t="n">
         <v>3</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-27-2008-09</t>
+          <t>2009-03-27</t>
         </is>
       </c>
     </row>
@@ -2018,25 +2085,25 @@
         <v>-0.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>16</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI9" t="n">
         <v>22</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK9" t="n">
         <v>18</v>
@@ -2048,7 +2115,7 @@
         <v>29</v>
       </c>
       <c r="AN9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO9" t="n">
         <v>29</v>
@@ -2063,7 +2130,7 @@
         <v>11</v>
       </c>
       <c r="AS9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT9" t="n">
         <v>18</v>
@@ -2072,16 +2139,16 @@
         <v>16</v>
       </c>
       <c r="AV9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW9" t="n">
         <v>29</v>
       </c>
       <c r="AX9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ9" t="n">
         <v>18</v>
@@ -2093,7 +2160,7 @@
         <v>28</v>
       </c>
       <c r="BC9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-27-2008-09</t>
+          <t>2009-03-27</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2221,7 +2288,7 @@
         <v>3</v>
       </c>
       <c r="AK10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL10" t="n">
         <v>16</v>
@@ -2254,7 +2321,7 @@
         <v>14</v>
       </c>
       <c r="AV10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW10" t="n">
         <v>6</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-27-2008-09</t>
+          <t>2009-03-27</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="AE11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF11" t="n">
         <v>6</v>
@@ -2394,7 +2461,7 @@
         <v>6</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
         <v>27</v>
@@ -2415,7 +2482,7 @@
         <v>9</v>
       </c>
       <c r="AO11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
         <v>20</v>
@@ -2430,13 +2497,13 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU11" t="n">
         <v>19</v>
       </c>
       <c r="AV11" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AW11" t="n">
         <v>25</v>
@@ -2451,10 +2518,10 @@
         <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC11" t="n">
         <v>7</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-27-2008-09</t>
+          <t>2009-03-27</t>
         </is>
       </c>
     </row>
@@ -2564,16 +2631,16 @@
         <v>-1.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE12" t="n">
         <v>20</v>
       </c>
       <c r="AF12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
         <v>11</v>
@@ -2585,10 +2652,10 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM12" t="n">
         <v>3</v>
@@ -2597,10 +2664,10 @@
         <v>10</v>
       </c>
       <c r="AO12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ12" t="n">
         <v>5</v>
@@ -2621,7 +2688,7 @@
         <v>20</v>
       </c>
       <c r="AW12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX12" t="n">
         <v>9</v>
@@ -2630,7 +2697,7 @@
         <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
         <v>13</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-27-2008-09</t>
+          <t>2009-03-27</t>
         </is>
       </c>
     </row>
@@ -2668,28 +2735,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" t="n">
         <v>18</v>
       </c>
       <c r="F13" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G13" t="n">
-        <v>0.247</v>
+        <v>0.25</v>
       </c>
       <c r="H13" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I13" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J13" t="n">
         <v>81.8</v>
       </c>
       <c r="K13" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L13" t="n">
         <v>6.6</v>
@@ -2698,16 +2765,16 @@
         <v>18.3</v>
       </c>
       <c r="N13" t="n">
-        <v>0.36</v>
+        <v>0.358</v>
       </c>
       <c r="O13" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P13" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.742</v>
+        <v>0.743</v>
       </c>
       <c r="R13" t="n">
         <v>11</v>
@@ -2719,13 +2786,13 @@
         <v>39.9</v>
       </c>
       <c r="U13" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V13" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W13" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X13" t="n">
         <v>5.9</v>
@@ -2734,19 +2801,19 @@
         <v>5.2</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA13" t="n">
         <v>19.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="AC13" t="n">
-        <v>-8.5</v>
+        <v>-8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
         <v>27</v>
@@ -2755,7 +2822,7 @@
         <v>28</v>
       </c>
       <c r="AG13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH13" t="n">
         <v>7</v>
@@ -2767,7 +2834,7 @@
         <v>10</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL13" t="n">
         <v>17</v>
@@ -2782,7 +2849,7 @@
         <v>28</v>
       </c>
       <c r="AP13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ13" t="n">
         <v>27</v>
@@ -2791,10 +2858,10 @@
         <v>16</v>
       </c>
       <c r="AS13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT13" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AU13" t="n">
         <v>13</v>
@@ -2803,7 +2870,7 @@
         <v>23</v>
       </c>
       <c r="AW13" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
@@ -2812,7 +2879,7 @@
         <v>21</v>
       </c>
       <c r="AZ13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA13" t="n">
         <v>26</v>
@@ -2821,7 +2888,7 @@
         <v>26</v>
       </c>
       <c r="BC13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-27-2008-09</t>
+          <t>2009-03-27</t>
         </is>
       </c>
     </row>
@@ -2865,10 +2932,10 @@
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="J14" t="n">
-        <v>85.3</v>
+        <v>85.2</v>
       </c>
       <c r="K14" t="n">
         <v>0.478</v>
@@ -2877,10 +2944,10 @@
         <v>6.8</v>
       </c>
       <c r="M14" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.365</v>
+        <v>0.368</v>
       </c>
       <c r="O14" t="n">
         <v>19.7</v>
@@ -2889,19 +2956,19 @@
         <v>25.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R14" t="n">
         <v>12.4</v>
       </c>
       <c r="S14" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="T14" t="n">
-        <v>44</v>
+        <v>44.2</v>
       </c>
       <c r="U14" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="V14" t="n">
         <v>13.6</v>
@@ -2919,16 +2986,16 @@
         <v>20.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.1</v>
+        <v>108</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD14" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2958,19 +3025,19 @@
         <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP14" t="n">
         <v>8</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS14" t="n">
         <v>7</v>
@@ -2985,16 +3052,16 @@
         <v>11</v>
       </c>
       <c r="AW14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AY14" t="n">
         <v>14</v>
       </c>
       <c r="AZ14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA14" t="n">
         <v>8</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-27-2008-09</t>
+          <t>2009-03-27</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" t="n">
         <v>53</v>
       </c>
       <c r="G15" t="n">
-        <v>0.254</v>
+        <v>0.243</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
@@ -3053,31 +3120,31 @@
         <v>77.40000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="M15" t="n">
         <v>13.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.352</v>
+        <v>0.348</v>
       </c>
       <c r="O15" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="P15" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R15" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S15" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="T15" t="n">
         <v>38.9</v>
@@ -3086,10 +3153,10 @@
         <v>17.2</v>
       </c>
       <c r="V15" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W15" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X15" t="n">
         <v>4.5</v>
@@ -3101,25 +3168,25 @@
         <v>21.8</v>
       </c>
       <c r="AA15" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.40000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.2</v>
+        <v>-6.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AE15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF15" t="n">
         <v>27</v>
       </c>
-      <c r="AF15" t="n">
-        <v>26</v>
-      </c>
       <c r="AG15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH15" t="n">
         <v>14</v>
@@ -3131,7 +3198,7 @@
         <v>27</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL15" t="n">
         <v>27</v>
@@ -3140,19 +3207,19 @@
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AO15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP15" t="n">
         <v>13</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>12</v>
       </c>
       <c r="AQ15" t="n">
         <v>22</v>
       </c>
       <c r="AR15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS15" t="n">
         <v>29</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-27-2008-09</t>
+          <t>2009-03-27</t>
         </is>
       </c>
     </row>
@@ -3292,22 +3359,22 @@
         <v>-0.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
       </c>
       <c r="AF16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH16" t="n">
         <v>1</v>
       </c>
       <c r="AI16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ16" t="n">
         <v>12</v>
@@ -3322,13 +3389,13 @@
         <v>10</v>
       </c>
       <c r="AN16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
         <v>27</v>
       </c>
       <c r="AP16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ16" t="n">
         <v>21</v>
@@ -3355,7 +3422,7 @@
         <v>4</v>
       </c>
       <c r="AY16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ16" t="n">
         <v>16</v>
@@ -3364,7 +3431,7 @@
         <v>25</v>
       </c>
       <c r="BB16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-27-2008-09</t>
+          <t>2009-03-27</t>
         </is>
       </c>
     </row>
@@ -3414,10 +3481,10 @@
         <v>36.5</v>
       </c>
       <c r="J17" t="n">
-        <v>82.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.443</v>
+        <v>0.445</v>
       </c>
       <c r="L17" t="n">
         <v>6.1</v>
@@ -3426,31 +3493,31 @@
         <v>16.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O17" t="n">
         <v>20</v>
       </c>
       <c r="P17" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.782</v>
+        <v>0.783</v>
       </c>
       <c r="R17" t="n">
         <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="T17" t="n">
-        <v>41.1</v>
+        <v>40.9</v>
       </c>
       <c r="U17" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V17" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W17" t="n">
         <v>7.3</v>
@@ -3462,10 +3529,10 @@
         <v>4.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB17" t="n">
         <v>99.09999999999999</v>
@@ -3474,10 +3541,10 @@
         <v>-1.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF17" t="n">
         <v>19</v>
@@ -3486,16 +3553,16 @@
         <v>19</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ17" t="n">
         <v>8</v>
       </c>
       <c r="AK17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL17" t="n">
         <v>21</v>
@@ -3507,10 +3574,10 @@
         <v>19</v>
       </c>
       <c r="AO17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ17" t="n">
         <v>11</v>
@@ -3519,25 +3586,25 @@
         <v>5</v>
       </c>
       <c r="AS17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AT17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU17" t="n">
         <v>9</v>
       </c>
       <c r="AV17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-27-2008-09</t>
+          <t>2009-03-27</t>
         </is>
       </c>
     </row>
@@ -3578,28 +3645,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" t="n">
         <v>20</v>
       </c>
       <c r="F18" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G18" t="n">
-        <v>0.274</v>
+        <v>0.278</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
       </c>
       <c r="I18" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J18" t="n">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="K18" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L18" t="n">
         <v>6.5</v>
@@ -3608,31 +3675,31 @@
         <v>18.6</v>
       </c>
       <c r="N18" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="O18" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P18" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.769</v>
+        <v>0.771</v>
       </c>
       <c r="R18" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S18" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T18" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="U18" t="n">
         <v>20.2</v>
       </c>
       <c r="V18" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W18" t="n">
         <v>6.2</v>
@@ -3644,19 +3711,19 @@
         <v>6.1</v>
       </c>
       <c r="Z18" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA18" t="n">
         <v>20.2</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>-5</v>
+        <v>-4.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3671,13 +3738,13 @@
         <v>18</v>
       </c>
       <c r="AI18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ18" t="n">
         <v>7</v>
       </c>
       <c r="AK18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL18" t="n">
         <v>18</v>
@@ -3686,22 +3753,22 @@
         <v>15</v>
       </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ18" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AR18" t="n">
         <v>7</v>
       </c>
       <c r="AS18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AT18" t="n">
         <v>13</v>
@@ -3725,10 +3792,10 @@
         <v>22</v>
       </c>
       <c r="BA18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-27-2008-09</t>
+          <t>2009-03-27</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" t="n">
         <v>30</v>
       </c>
       <c r="F19" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G19" t="n">
-        <v>0.417</v>
+        <v>0.423</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
@@ -3781,40 +3848,40 @@
         <v>80</v>
       </c>
       <c r="K19" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L19" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M19" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.379</v>
+        <v>0.38</v>
       </c>
       <c r="O19" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="P19" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.779</v>
+        <v>0.782</v>
       </c>
       <c r="R19" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S19" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T19" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="U19" t="n">
         <v>19.9</v>
       </c>
       <c r="V19" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="W19" t="n">
         <v>7</v>
@@ -3832,25 +3899,25 @@
         <v>20.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AE19" t="n">
         <v>20</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG19" t="n">
         <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI19" t="n">
         <v>26</v>
@@ -3862,7 +3929,7 @@
         <v>23</v>
       </c>
       <c r="AL19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM19" t="n">
         <v>4</v>
@@ -3871,7 +3938,7 @@
         <v>8</v>
       </c>
       <c r="AO19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP19" t="n">
         <v>18</v>
@@ -3892,16 +3959,16 @@
         <v>26</v>
       </c>
       <c r="AV19" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AW19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ19" t="n">
         <v>25</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-27-2008-09</t>
+          <t>2009-03-27</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" t="n">
         <v>44</v>
       </c>
       <c r="F20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G20" t="n">
-        <v>0.62</v>
+        <v>0.629</v>
       </c>
       <c r="H20" t="n">
         <v>48.1</v>
@@ -3960,10 +4027,10 @@
         <v>35.2</v>
       </c>
       <c r="J20" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L20" t="n">
         <v>7</v>
@@ -3972,16 +4039,16 @@
         <v>19</v>
       </c>
       <c r="N20" t="n">
-        <v>0.368</v>
+        <v>0.369</v>
       </c>
       <c r="O20" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P20" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R20" t="n">
         <v>9.9</v>
@@ -3993,13 +4060,13 @@
         <v>39.9</v>
       </c>
       <c r="U20" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="V20" t="n">
         <v>12.8</v>
       </c>
       <c r="W20" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X20" t="n">
         <v>4.3</v>
@@ -4008,28 +4075,28 @@
         <v>3.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>95.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AE20" t="n">
         <v>9</v>
       </c>
       <c r="AF20" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH20" t="n">
         <v>28</v>
@@ -4041,7 +4108,7 @@
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
         <v>10</v>
@@ -4053,7 +4120,7 @@
         <v>14</v>
       </c>
       <c r="AO20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP20" t="n">
         <v>27</v>
@@ -4077,7 +4144,7 @@
         <v>5</v>
       </c>
       <c r="AW20" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AX20" t="n">
         <v>23</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-27-2008-09</t>
+          <t>2009-03-27</t>
         </is>
       </c>
     </row>
@@ -4124,31 +4191,31 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21" t="n">
         <v>43</v>
       </c>
       <c r="G21" t="n">
-        <v>0.403</v>
+        <v>0.394</v>
       </c>
       <c r="H21" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I21" t="n">
         <v>38.6</v>
       </c>
       <c r="J21" t="n">
-        <v>86.8</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L21" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="M21" t="n">
         <v>28.4</v>
@@ -4160,16 +4227,16 @@
         <v>18.5</v>
       </c>
       <c r="P21" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.788</v>
+        <v>0.786</v>
       </c>
       <c r="R21" t="n">
         <v>11.2</v>
       </c>
       <c r="S21" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="T21" t="n">
         <v>42.3</v>
@@ -4190,19 +4257,19 @@
         <v>5.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA21" t="n">
         <v>19.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>105.9</v>
+        <v>106</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.5</v>
+        <v>-2.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
@@ -4223,10 +4290,10 @@
         <v>1</v>
       </c>
       <c r="AK21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM21" t="n">
         <v>1</v>
@@ -4241,16 +4308,16 @@
         <v>21</v>
       </c>
       <c r="AQ21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AS21" t="n">
         <v>8</v>
       </c>
       <c r="AT21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU21" t="n">
         <v>11</v>
@@ -4259,7 +4326,7 @@
         <v>18</v>
       </c>
       <c r="AW21" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,10 +4335,10 @@
         <v>22</v>
       </c>
       <c r="AZ21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA21" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BB21" t="n">
         <v>4</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-27-2008-09</t>
+          <t>2009-03-27</t>
         </is>
       </c>
     </row>
@@ -4306,19 +4373,19 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E22" t="n">
         <v>20</v>
       </c>
       <c r="F22" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G22" t="n">
-        <v>0.278</v>
+        <v>0.282</v>
       </c>
       <c r="H22" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I22" t="n">
         <v>36.6</v>
@@ -4327,7 +4394,7 @@
         <v>81.90000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L22" t="n">
         <v>4.1</v>
@@ -4336,13 +4403,13 @@
         <v>11.8</v>
       </c>
       <c r="N22" t="n">
-        <v>0.347</v>
+        <v>0.349</v>
       </c>
       <c r="O22" t="n">
         <v>20</v>
       </c>
       <c r="P22" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="Q22" t="n">
         <v>0.787</v>
@@ -4354,13 +4421,13 @@
         <v>30.5</v>
       </c>
       <c r="T22" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U22" t="n">
         <v>20.1</v>
       </c>
       <c r="V22" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="W22" t="n">
         <v>7.3</v>
@@ -4369,22 +4436,22 @@
         <v>4.4</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA22" t="n">
         <v>20.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>97.3</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC22" t="n">
-        <v>-5.6</v>
+        <v>-5.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AE22" t="n">
         <v>25</v>
@@ -4399,7 +4466,7 @@
         <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ22" t="n">
         <v>9</v>
@@ -4414,7 +4481,7 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO22" t="n">
         <v>6</v>
@@ -4423,25 +4490,25 @@
         <v>11</v>
       </c>
       <c r="AQ22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT22" t="n">
         <v>4</v>
       </c>
-      <c r="AS22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>5</v>
-      </c>
       <c r="AU22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX22" t="n">
         <v>22</v>
@@ -4450,7 +4517,7 @@
         <v>17</v>
       </c>
       <c r="AZ22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA22" t="n">
         <v>20</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-27-2008-09</t>
+          <t>2009-03-27</t>
         </is>
       </c>
     </row>
@@ -4488,22 +4555,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E23" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F23" t="n">
         <v>18</v>
       </c>
       <c r="G23" t="n">
-        <v>0.75</v>
+        <v>0.746</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J23" t="n">
         <v>78.2</v>
@@ -4515,19 +4582,19 @@
         <v>10.3</v>
       </c>
       <c r="M23" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="N23" t="n">
-        <v>0.387</v>
+        <v>0.386</v>
       </c>
       <c r="O23" t="n">
         <v>19.9</v>
       </c>
       <c r="P23" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.721</v>
+        <v>0.723</v>
       </c>
       <c r="R23" t="n">
         <v>10</v>
@@ -4542,10 +4609,10 @@
         <v>19.5</v>
       </c>
       <c r="V23" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W23" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X23" t="n">
         <v>5.4</v>
@@ -4557,19 +4624,19 @@
         <v>20.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>3</v>
@@ -4587,7 +4654,7 @@
         <v>26</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4608,7 +4675,7 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS23" t="n">
         <v>1</v>
@@ -4620,7 +4687,7 @@
         <v>29</v>
       </c>
       <c r="AV23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW23" t="n">
         <v>20</v>
@@ -4632,7 +4699,7 @@
         <v>2</v>
       </c>
       <c r="AZ23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA23" t="n">
         <v>5</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-27-2008-09</t>
+          <t>2009-03-27</t>
         </is>
       </c>
     </row>
@@ -4670,25 +4737,25 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E24" t="n">
         <v>37</v>
       </c>
       <c r="F24" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" t="n">
-        <v>0.521</v>
+        <v>0.529</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
       </c>
       <c r="I24" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J24" t="n">
-        <v>80.09999999999999</v>
+        <v>80.3</v>
       </c>
       <c r="K24" t="n">
         <v>0.459</v>
@@ -4700,28 +4767,28 @@
         <v>13.1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.32</v>
+        <v>0.321</v>
       </c>
       <c r="O24" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="P24" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.745</v>
+        <v>0.744</v>
       </c>
       <c r="R24" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="S24" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="T24" t="n">
-        <v>41.6</v>
+        <v>41.9</v>
       </c>
       <c r="U24" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V24" t="n">
         <v>14.4</v>
@@ -4739,16 +4806,16 @@
         <v>20.1</v>
       </c>
       <c r="AA24" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB24" t="n">
         <v>97.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -4757,16 +4824,16 @@
         <v>14</v>
       </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH24" t="n">
         <v>24</v>
       </c>
       <c r="AI24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK24" t="n">
         <v>13</v>
@@ -4781,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AP24" t="n">
         <v>6</v>
@@ -4796,10 +4863,10 @@
         <v>22</v>
       </c>
       <c r="AT24" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AU24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV24" t="n">
         <v>17</v>
@@ -4811,7 +4878,7 @@
         <v>11</v>
       </c>
       <c r="AY24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ24" t="n">
         <v>6</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-27-2008-09</t>
+          <t>2009-03-27</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4942,7 +5009,7 @@
         <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI25" t="n">
         <v>1</v>
@@ -4969,7 +5036,7 @@
         <v>5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR25" t="n">
         <v>22</v>
@@ -4978,16 +5045,16 @@
         <v>10</v>
       </c>
       <c r="AT25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU25" t="n">
         <v>3</v>
       </c>
       <c r="AV25" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AW25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX25" t="n">
         <v>12</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-27-2008-09</t>
+          <t>2009-03-27</t>
         </is>
       </c>
     </row>
@@ -5034,52 +5101,52 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E26" t="n">
         <v>45</v>
       </c>
       <c r="F26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G26" t="n">
-        <v>0.634</v>
+        <v>0.625</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J26" t="n">
-        <v>79.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L26" t="n">
         <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N26" t="n">
         <v>0.38</v>
       </c>
       <c r="O26" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P26" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.77</v>
+        <v>0.768</v>
       </c>
       <c r="R26" t="n">
         <v>12.9</v>
       </c>
       <c r="S26" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="T26" t="n">
         <v>41.3</v>
@@ -5097,37 +5164,37 @@
         <v>4.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z26" t="n">
         <v>20.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AG26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
         <v>22</v>
@@ -5145,13 +5212,13 @@
         <v>7</v>
       </c>
       <c r="AO26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP26" t="n">
         <v>17</v>
       </c>
-      <c r="AP26" t="n">
-        <v>16</v>
-      </c>
       <c r="AQ26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5163,10 +5230,10 @@
         <v>16</v>
       </c>
       <c r="AU26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW26" t="n">
         <v>26</v>
@@ -5178,7 +5245,7 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA26" t="n">
         <v>12</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-27-2008-09</t>
+          <t>2009-03-27</t>
         </is>
       </c>
     </row>
@@ -5216,25 +5283,25 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
       </c>
       <c r="F27" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G27" t="n">
-        <v>0.211</v>
+        <v>0.214</v>
       </c>
       <c r="H27" t="n">
         <v>48.6</v>
       </c>
       <c r="I27" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J27" t="n">
-        <v>80.8</v>
+        <v>81</v>
       </c>
       <c r="K27" t="n">
         <v>0.448</v>
@@ -5246,13 +5313,13 @@
         <v>19.1</v>
       </c>
       <c r="N27" t="n">
-        <v>0.363</v>
+        <v>0.364</v>
       </c>
       <c r="O27" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="P27" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="Q27" t="n">
         <v>0.804</v>
@@ -5261,16 +5328,16 @@
         <v>10</v>
       </c>
       <c r="S27" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="T27" t="n">
-        <v>38.6</v>
+        <v>38.8</v>
       </c>
       <c r="U27" t="n">
         <v>19.7</v>
       </c>
       <c r="V27" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W27" t="n">
         <v>7.1</v>
@@ -5279,22 +5346,22 @@
         <v>4</v>
       </c>
       <c r="Y27" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="AA27" t="n">
         <v>21.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="AC27" t="n">
-        <v>-8.6</v>
+        <v>-8.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
@@ -5312,7 +5379,7 @@
         <v>23</v>
       </c>
       <c r="AJ27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK27" t="n">
         <v>24</v>
@@ -5330,13 +5397,13 @@
         <v>4</v>
       </c>
       <c r="AP27" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ27" t="n">
         <v>6</v>
       </c>
       <c r="AR27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS27" t="n">
         <v>27</v>
@@ -5348,19 +5415,19 @@
         <v>27</v>
       </c>
       <c r="AV27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX27" t="n">
         <v>28</v>
       </c>
       <c r="AY27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA27" t="n">
         <v>11</v>
@@ -5369,7 +5436,7 @@
         <v>13</v>
       </c>
       <c r="BC27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-27-2008-09</t>
+          <t>2009-03-27</t>
         </is>
       </c>
     </row>
@@ -5398,46 +5465,46 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E28" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F28" t="n">
         <v>24</v>
       </c>
       <c r="G28" t="n">
-        <v>0.667</v>
+        <v>0.662</v>
       </c>
       <c r="H28" t="n">
         <v>48.6</v>
       </c>
       <c r="I28" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J28" t="n">
-        <v>79.7</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L28" t="n">
         <v>7.7</v>
       </c>
       <c r="M28" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="N28" t="n">
         <v>0.392</v>
       </c>
       <c r="O28" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="P28" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.765</v>
+        <v>0.764</v>
       </c>
       <c r="R28" t="n">
         <v>8.699999999999999</v>
@@ -5449,13 +5516,13 @@
         <v>41</v>
       </c>
       <c r="U28" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="V28" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="W28" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="X28" t="n">
         <v>4.2</v>
@@ -5467,16 +5534,16 @@
         <v>18.7</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>97</v>
+        <v>96.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5488,7 +5555,7 @@
         <v>5</v>
       </c>
       <c r="AH28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI28" t="n">
         <v>10</v>
@@ -5506,7 +5573,7 @@
         <v>9</v>
       </c>
       <c r="AN28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5524,13 +5591,13 @@
         <v>3</v>
       </c>
       <c r="AT28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU28" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW28" t="n">
         <v>30</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-27-2008-09</t>
+          <t>2009-03-27</t>
         </is>
       </c>
     </row>
@@ -5580,28 +5647,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F29" t="n">
         <v>45</v>
       </c>
       <c r="G29" t="n">
-        <v>0.375</v>
+        <v>0.366</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J29" t="n">
-        <v>80.2</v>
+        <v>80</v>
       </c>
       <c r="K29" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L29" t="n">
         <v>5.9</v>
@@ -5610,28 +5677,28 @@
         <v>15.8</v>
       </c>
       <c r="N29" t="n">
-        <v>0.374</v>
+        <v>0.373</v>
       </c>
       <c r="O29" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="P29" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.827</v>
+        <v>0.826</v>
       </c>
       <c r="R29" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S29" t="n">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
       <c r="T29" t="n">
-        <v>39.9</v>
+        <v>39.7</v>
       </c>
       <c r="U29" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="V29" t="n">
         <v>13.4</v>
@@ -5649,16 +5716,16 @@
         <v>19.3</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>98</v>
+        <v>97.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3</v>
+        <v>-3.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
@@ -5670,16 +5737,16 @@
         <v>23</v>
       </c>
       <c r="AH29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI29" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AJ29" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AK29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL29" t="n">
         <v>24</v>
@@ -5691,10 +5758,10 @@
         <v>11</v>
       </c>
       <c r="AO29" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5706,10 +5773,10 @@
         <v>11</v>
       </c>
       <c r="AT29" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AU29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV29" t="n">
         <v>10</v>
@@ -5718,7 +5785,7 @@
         <v>28</v>
       </c>
       <c r="AX29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY29" t="n">
         <v>11</v>
@@ -5727,7 +5794,7 @@
         <v>3</v>
       </c>
       <c r="BA29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB29" t="n">
         <v>21</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-27-2008-09</t>
+          <t>2009-03-27</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>3.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AE30" t="n">
         <v>9</v>
@@ -5849,7 +5916,7 @@
         <v>9</v>
       </c>
       <c r="AG30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH30" t="n">
         <v>8</v>
@@ -5858,7 +5925,7 @@
         <v>6</v>
       </c>
       <c r="AJ30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK30" t="n">
         <v>4</v>
@@ -5885,7 +5952,7 @@
         <v>9</v>
       </c>
       <c r="AS30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT30" t="n">
         <v>17</v>
@@ -5903,7 +5970,7 @@
         <v>15</v>
       </c>
       <c r="AY30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ30" t="n">
         <v>23</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-27-2008-09</t>
+          <t>2009-03-27</t>
         </is>
       </c>
     </row>
@@ -6025,16 +6092,16 @@
         <v>1</v>
       </c>
       <c r="AE31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI31" t="n">
         <v>20</v>
@@ -6073,7 +6140,7 @@
         <v>24</v>
       </c>
       <c r="AU31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV31" t="n">
         <v>12</v>
@@ -6091,7 +6158,7 @@
         <v>14</v>
       </c>
       <c r="BA31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB31" t="n">
         <v>27</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-27-2008-09</t>
+          <t>2009-03-27</t>
         </is>
       </c>
     </row>
